--- a/src/predicciones/holt_winters/producto_100.xlsx
+++ b/src/predicciones/holt_winters/producto_100.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,69 +404,1169 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>13.30747542864612</v>
+        <v>1.986031959394372</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44936</v>
       </c>
       <c r="B3">
-        <v>10.79518261890958</v>
+        <v>0.9946101477869864</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44939</v>
       </c>
       <c r="B4">
-        <v>11.25367243599376</v>
+        <v>0.9908181044243434</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44940</v>
       </c>
       <c r="B5">
-        <v>13.72860961683519</v>
+        <v>0.9946780920954859</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44947</v>
       </c>
       <c r="B6">
-        <v>12.65878980064369</v>
+        <v>1.82346886794182</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44948</v>
       </c>
       <c r="B7">
-        <v>12.99722068442621</v>
+        <v>1.827041918081557</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B8">
+        <v>1.009768399945989</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B9">
+        <v>1.977699636569339</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B10">
+        <v>0.9862778249619528</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B11">
+        <v>0.9824857815993095</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B12">
+        <v>0.9863457692704523</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B13">
+        <v>1.815136545116786</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B14">
+        <v>1.818709595256524</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B15">
+        <v>1.001436077120955</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B16">
+        <v>1.969367313744305</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B17">
+        <v>0.977945502136919</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B18">
+        <v>0.9741534587742759</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B19">
+        <v>0.9780134464454184</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B20">
+        <v>1.806804222291753</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B21">
+        <v>1.81037727243149</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B22">
+        <v>0.9931037542959211</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B23">
+        <v>1.961034990919271</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B24">
+        <v>0.9696131793118854</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B25">
+        <v>0.9658211359492421</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B26">
+        <v>0.9696811236203848</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B27">
+        <v>1.798471899466719</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B28">
+        <v>1.802044949606456</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B29">
+        <v>0.9847714314708873</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B30">
+        <v>1.952702668094238</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B31">
+        <v>0.9612808564868516</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B32">
+        <v>0.9574888131242085</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B33">
+        <v>0.961348800795351</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B34">
+        <v>1.790139576641685</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B35">
+        <v>1.793712626781423</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B36">
+        <v>0.9764391086458537</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B37">
+        <v>1.944370345269204</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B38">
+        <v>0.952948533661818</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B39">
+        <v>0.9491564902991749</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B40">
+        <v>0.9530164779703174</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B41">
+        <v>1.781807253816652</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B42">
+        <v>1.785380303956389</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B43">
+        <v>0.9681067858208201</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B44">
+        <v>1.93603802244417</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B45">
+        <v>0.9446162108367844</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B46">
+        <v>0.9408241674741411</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B47">
+        <v>0.9446841551452838</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B48">
+        <v>1.773474930991618</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B49">
+        <v>1.777047981131355</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B50">
+        <v>0.9597744629957863</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B51">
+        <v>1.927705699619137</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B52">
+        <v>0.9362838880117506</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B53">
+        <v>0.9324918446491075</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B54">
+        <v>0.93635183232025</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B55">
+        <v>1.765142608166584</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B56">
+        <v>1.768715658306321</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B57">
+        <v>0.9514421401707527</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B58">
+        <v>1.919373376794103</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B59">
+        <v>0.927951565186717</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B60">
+        <v>0.9241595218240737</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B61">
+        <v>0.9280195094952164</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B62">
+        <v>1.756810285341551</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B63">
+        <v>1.760383335481288</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B64">
+        <v>0.9431098173457189</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B65">
+        <v>1.911041053969069</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B66">
+        <v>0.9196192423616834</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B67">
+        <v>0.9158271989990401</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B68">
+        <v>0.9196871866701828</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B69">
+        <v>1.748477962516517</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B70">
+        <v>1.752051012656254</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B71">
+        <v>0.9347774945206853</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B72">
+        <v>1.902708731144036</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B73">
+        <v>0.9112869195366495</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B74">
+        <v>0.9074948761740065</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B75">
+        <v>0.911354863845149</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B76">
+        <v>1.740145639691483</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B77">
+        <v>1.74371868983122</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B78">
+        <v>0.9264451716956517</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B79">
+        <v>1.894376408319002</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B80">
+        <v>0.9029545967116159</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B81">
+        <v>0.8991625533489727</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B82">
+        <v>0.9030225410201154</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B83">
+        <v>1.73181331686645</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B84">
+        <v>1.735386367006187</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B85">
+        <v>0.9181128488706178</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B86">
+        <v>1.886044085493968</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B87">
+        <v>0.8946222738865821</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B88">
+        <v>0.8908302305239391</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B89">
+        <v>0.8946902181950815</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B90">
+        <v>1.723480994041416</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B91">
+        <v>1.727054044181153</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B92">
+        <v>0.9097805260455842</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B93">
+        <v>1.877711762668934</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B94">
+        <v>0.8862899510615485</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B95">
+        <v>0.8824979076989052</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B96">
+        <v>0.8863578953700479</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B97">
+        <v>1.715148671216382</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B98">
+        <v>1.718721721356119</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B99">
+        <v>0.9014482032205504</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B100">
+        <v>1.869379439843901</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B101">
+        <v>0.8779576282365149</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B102">
+        <v>0.8741655848738716</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B103">
+        <v>0.8780255725450143</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B104">
+        <v>1.706816348391349</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B105">
+        <v>1.710389398531086</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B106">
+        <v>0.8931158803955168</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B107">
+        <v>1.861047117018867</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
